--- a/stock_predictor_ai/data/company_sentiment_ready/SBUX_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/SBUX_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8357"/>
+  <dimension ref="A1:B8363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67297,6 +67297,54 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8358">
+      <c r="A8358" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B8358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8359">
+      <c r="A8359" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B8359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8360">
+      <c r="A8360" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B8360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8361">
+      <c r="A8361" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B8361" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8362">
+      <c r="A8362" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B8362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8363">
+      <c r="A8363" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B8363" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/company_sentiment_ready/SBUX_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/SBUX_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8363"/>
+  <dimension ref="A1:B8364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67345,6 +67345,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8364">
+      <c r="A8364" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B8364" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
